--- a/data/workload_update_221018.xlsx
+++ b/data/workload_update_221018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Working/Optimization/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B92106-E2FE-9946-9A3C-E3D3E1A763AF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E622B8-D935-0E4E-B2A4-71633469EBFA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="3" xr2:uid="{8F198691-3026-7942-A2C4-D9F6FECBD38E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{8F198691-3026-7942-A2C4-D9F6FECBD38E}"/>
   </bookViews>
   <sheets>
     <sheet name="DC1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
   <si>
     <t>id</t>
   </si>
@@ -123,12 +123,6 @@
     <t>c342193c-f61f-4ea7-b139-33cfd90ab2b9</t>
   </si>
   <si>
-    <t>demo</t>
-  </si>
-  <si>
-    <t>48730f97-5089-4729-9580-0b2b86e41562</t>
-  </si>
-  <si>
     <t>gsbmymohqapp01</t>
   </si>
   <si>
@@ -189,18 +183,12 @@
     <t>a26292e9-9c54-4bd4-ad45-5cbc199d4bf0</t>
   </si>
   <si>
-    <t>66f2f565-a851-4006-be49-5731e4d7d34a</t>
-  </si>
-  <si>
     <t>mymodockerhqnode05</t>
   </si>
   <si>
     <t>b5ff2da2-ea0e-4cf0-9f73-d8a873851460</t>
   </si>
   <si>
-    <t>2cc2944b-cbf2-4c36-a023-df4151fff66d</t>
-  </si>
-  <si>
     <t>prdftp01</t>
   </si>
   <si>
@@ -237,12 +225,6 @@
     <t>7685f648-6888-4fa6-95f9-7be4009a86f1</t>
   </si>
   <si>
-    <t>gsbmymohqpush01</t>
-  </si>
-  <si>
-    <t>cb702261-9b1f-413c-b828-40ae251293b3</t>
-  </si>
-  <si>
     <t>gsbmymohqweb01</t>
   </si>
   <si>
@@ -255,9 +237,6 @@
     <t>c59a878b-e3f6-46aa-9e84-a86f9d7d73b0</t>
   </si>
   <si>
-    <t>934bbb6c-3459-429f-b3f6-60414c49fb06</t>
-  </si>
-  <si>
     <t>mymodockerhqnode02</t>
   </si>
   <si>
@@ -300,30 +279,12 @@
     <t>54050d91-05d9-402b-a500-1153a0abe416</t>
   </si>
   <si>
-    <t>mymodockerhqelk02</t>
-  </si>
-  <si>
-    <t>519a0637-90f2-4429-96cf-bda75e936dee</t>
-  </si>
-  <si>
-    <t>mymodockerhqelk03</t>
-  </si>
-  <si>
-    <t>88b2ba45-27ae-45b1-8065-8af895281a4b</t>
-  </si>
-  <si>
     <t>mymodockerhqelk04</t>
   </si>
   <si>
     <t>7241930c-0324-42c4-b6fa-ab4db9d56d36</t>
   </si>
   <si>
-    <t>mymodockerhqelk05</t>
-  </si>
-  <si>
-    <t>5f135e7d-a0d8-42f6-97bb-b2e3071eb7dd</t>
-  </si>
-  <si>
     <t>elkapphq01</t>
   </si>
   <si>
@@ -367,15 +328,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>none1</t>
-  </si>
-  <si>
-    <t>none2</t>
-  </si>
-  <si>
-    <t>none3</t>
   </si>
   <si>
     <t>aug-16</t>
@@ -476,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -497,7 +449,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +767,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,294 +777,277 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>118</v>
+      <c r="C1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>2.056</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D2">
-        <v>2.0960000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E2">
-        <v>2.13</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>0.10299999999999999</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="D3">
-        <v>8.4000000000000005E-2</v>
+        <v>0.73</v>
       </c>
       <c r="E3">
-        <v>0.13600000000000001</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>0.72799999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="D4">
-        <v>0.73</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E4">
-        <v>0.75900000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>0.125</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D5">
-        <v>0.10299999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="E5">
-        <v>0.09</v>
+        <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>0.16400000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="D6">
-        <v>0.19900000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="E6">
-        <v>0.11899999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0.125</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D7">
-        <v>0.13400000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E7">
-        <v>0.13800000000000001</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0.74199999999999999</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="D8">
-        <v>0.53100000000000003</v>
+        <v>0.97</v>
       </c>
       <c r="E8">
-        <v>0.97</v>
+        <v>0.79800000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.64900000000000002</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D9">
-        <v>0.97</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="E9">
-        <v>0.79800000000000004</v>
+        <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0.57899999999999996</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D10">
-        <v>0.96299999999999997</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E10">
-        <v>0.81699999999999995</v>
+        <v>0.51100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>0.47799999999999998</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="D11">
-        <v>0.60599999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="E11">
-        <v>0.51100000000000001</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>0.22700000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="D12">
-        <v>0.26</v>
+        <v>0.159</v>
       </c>
       <c r="E12">
-        <v>0.188</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>0.22</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D13">
-        <v>0.159</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E13">
-        <v>0.19600000000000001</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>9.2999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D14">
-        <v>6.4000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E14">
-        <v>7.8E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>2.4E-2</v>
+        <v>1.306</v>
       </c>
       <c r="D15">
-        <v>2.3E-2</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="E15">
-        <v>2.1999999999999999E-2</v>
+        <v>1.135</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>1.306</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D16">
-        <v>0.96399999999999997</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="E16">
-        <v>1.135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D17">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="E17">
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
     </row>
   </sheetData>
@@ -1129,7 +1063,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,27 +1073,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>118</v>
+      <c r="C1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>5.1999999999999998E-2</v>
@@ -1173,10 +1107,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>0.61899999999999999</v>
@@ -1190,10 +1124,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>5.4409999999999998</v>
@@ -1207,10 +1141,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>0.42499999999999999</v>
@@ -1224,10 +1158,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.11600000000000001</v>
@@ -1241,10 +1175,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>0.99299999999999999</v>
@@ -1258,10 +1192,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>0.61899999999999999</v>
@@ -1275,10 +1209,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>1.0469999999999999</v>
@@ -1292,10 +1226,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>1.9E-2</v>
@@ -1309,10 +1243,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>2.7090000000000001</v>
@@ -1326,10 +1260,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>0.46600000000000003</v>
@@ -1342,45 +1276,19 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E13">
-        <v>1.0999999999999999E-2</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.01</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E14">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:E12">
+    <sortCondition ref="A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1391,7 +1299,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="152" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="A8" sqref="A8:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1401,27 +1309,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>118</v>
+      <c r="C1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>5.7000000000000002E-2</v>
@@ -1435,10 +1343,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>0.437</v>
@@ -1452,10 +1360,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>8.3789999999999996</v>
@@ -1469,10 +1377,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>0.29499999999999998</v>
@@ -1486,10 +1394,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>0.31</v>
@@ -1503,10 +1411,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>6.3730000000000002</v>
@@ -1520,103 +1428,69 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8">
-        <v>4.5999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>5.7000000000000002E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>4.2999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C9">
-        <v>3.7999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D9">
-        <v>3.7999999999999999E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E9">
-        <v>4.4999999999999998E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>4.9000000000000002E-2</v>
+        <v>1.3029999999999999</v>
       </c>
       <c r="D10">
-        <v>7.3999999999999996E-2</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="E10">
-        <v>7.2999999999999995E-2</v>
+        <v>0.84699999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>77</v>
+      <c r="A11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>1.3029999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D11">
-        <v>1.0329999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E11">
-        <v>0.84699999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E12">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D13">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E13">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -1636,7 +1510,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1646,27 +1520,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>118</v>
+      <c r="C1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>0.60799999999999998</v>
@@ -1680,10 +1554,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>9.1999999999999998E-2</v>
@@ -1697,10 +1571,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>5.2069999999999999</v>
@@ -1714,10 +1588,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>0.41599999999999998</v>
@@ -1731,10 +1605,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>0.23300000000000001</v>
@@ -1748,10 +1622,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>4.9000000000000002E-2</v>
@@ -1765,10 +1639,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>0.47099999999999997</v>
@@ -1782,10 +1656,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>0.41199999999999998</v>
@@ -1799,10 +1673,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>0.41399999999999998</v>
@@ -1816,10 +1690,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>4.032</v>
@@ -1833,10 +1707,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <v>2.1000000000000001E-2</v>
@@ -1850,10 +1724,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>2.11</v>
@@ -1866,74 +1740,31 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>91</v>
+      <c r="A14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="C14">
-        <v>2.9000000000000001E-2</v>
+        <v>3.722</v>
       </c>
       <c r="D14">
-        <v>1.7999999999999999E-2</v>
+        <v>3.415</v>
       </c>
       <c r="E14">
-        <v>2.4E-2</v>
+        <v>3.3290000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="D15">
-        <v>0.315</v>
-      </c>
-      <c r="E15">
-        <v>0.374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16">
-        <v>3.722</v>
-      </c>
-      <c r="D16">
-        <v>3.415</v>
-      </c>
-      <c r="E16">
-        <v>3.3290000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17">
-        <v>2.9990000000000001</v>
-      </c>
-      <c r="D17">
-        <v>2.5670000000000002</v>
-      </c>
-      <c r="E17">
-        <v>3.4220000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
     </row>
   </sheetData>

--- a/data/workload_update_221018.xlsx
+++ b/data/workload_update_221018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Working/Optimization/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E622B8-D935-0E4E-B2A4-71633469EBFA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057A68C-5E38-9D4B-9147-D6352E1E45CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{8F198691-3026-7942-A2C4-D9F6FECBD38E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="3" xr2:uid="{8F198691-3026-7942-A2C4-D9F6FECBD38E}"/>
   </bookViews>
   <sheets>
     <sheet name="DC1" sheetId="1" r:id="rId1"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF88E40E-0C56-8F4D-A1B4-15912409B547}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A3671C-999B-8048-9754-A6AB011C612A}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1288,7 +1288,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:E12">
-    <sortCondition ref="A12"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1298,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B21F2C-9176-F64C-ABF3-5D5E99CB95D5}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="152" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E11"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1507,7 +1507,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6106ADFD-11D5-824D-8383-FC720EB1EB02}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:E14"/>
@@ -1571,172 +1571,172 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>5.2069999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="D4">
-        <v>3.6520000000000001</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="E4">
-        <v>4.319</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5">
-        <v>0.41599999999999998</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D5">
-        <v>0.45400000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="E5">
-        <v>0.46100000000000002</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6">
-        <v>0.23300000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D6">
-        <v>0.17799999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E6">
-        <v>2.9000000000000001E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>4.9000000000000002E-2</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D7">
-        <v>6.6000000000000003E-2</v>
+        <v>0.62</v>
       </c>
       <c r="E7">
-        <v>7.5999999999999998E-2</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8">
-        <v>0.47099999999999997</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="D8">
-        <v>0.62</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="E8">
-        <v>0.41399999999999998</v>
+        <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C9">
-        <v>0.41199999999999998</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D9">
-        <v>0.27700000000000002</v>
+        <v>0.248</v>
       </c>
       <c r="E9">
-        <v>0.26500000000000001</v>
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C10">
-        <v>0.41399999999999998</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D10">
-        <v>0.248</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E10">
-        <v>0.24299999999999999</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C11">
-        <v>4.032</v>
+        <v>2.11</v>
       </c>
       <c r="D11">
-        <v>8.5850000000000009</v>
+        <v>2.1680000000000001</v>
       </c>
       <c r="E11">
-        <v>4.2480000000000002</v>
+        <v>2.1059999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12">
-        <v>2.1000000000000001E-2</v>
+        <v>4.032</v>
       </c>
       <c r="D12">
-        <v>3.5000000000000003E-2</v>
+        <v>8.5850000000000009</v>
       </c>
       <c r="E12">
-        <v>3.1E-2</v>
+        <v>4.2480000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C13">
-        <v>2.11</v>
+        <v>5.2069999999999999</v>
       </c>
       <c r="D13">
-        <v>2.1680000000000001</v>
+        <v>3.6520000000000001</v>
       </c>
       <c r="E13">
-        <v>2.1059999999999999</v>
+        <v>4.319</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1757,18 +1757,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A15" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E17">
+  <sortState ref="A2:E14">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
